--- a/data_year/zb/文化/文物业基本情况/文物业实际使用房屋建筑面积.xlsx
+++ b/data_year/zb/文化/文物业基本情况/文物业实际使用房屋建筑面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -509,548 +509,482 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>544</v>
+        <v>458</v>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>28</v>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1178.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1022.96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>865.12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2207.88</v>
+      </c>
       <c r="I3" t="n">
-        <v>457</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+        <v>913.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="K3" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2090.78</v>
+      </c>
+      <c r="M3" t="n">
+        <v>257.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54.794</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.015</v>
+      </c>
+      <c r="D4" t="n">
+        <v>247.149</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1472.674</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1424.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>684.601</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2411.28</v>
+      </c>
       <c r="I4" t="n">
-        <v>466</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>769.424</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.575</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100.595</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2164.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>246.936</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>63.633</v>
+      </c>
+      <c r="C5" t="n">
+        <v>58.431</v>
+      </c>
+      <c r="D5" t="n">
+        <v>358.454</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1700.497</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1056.991</v>
+      </c>
+      <c r="G5" t="n">
+        <v>746.383</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2115.089</v>
+      </c>
       <c r="I5" t="n">
-        <v>231</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>244.631</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.298</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96.23399999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1756.636</v>
+      </c>
+      <c r="M5" t="n">
+        <v>248.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>57.869</v>
+      </c>
+      <c r="C6" t="n">
+        <v>80.148</v>
+      </c>
+      <c r="D6" t="n">
+        <v>443.915</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1933.116</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1253.684</v>
+      </c>
+      <c r="G6" t="n">
+        <v>847.207</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2434.927</v>
+      </c>
       <c r="I6" t="n">
-        <v>263</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>304.758</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15.377</v>
+      </c>
       <c r="K6" t="n">
-        <v>30</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>101.527</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1991.011</v>
+      </c>
+      <c r="M6" t="n">
+        <v>276.167</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>53.443</v>
+      </c>
+      <c r="C7" t="n">
+        <v>85.139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>474.767</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2033.747</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1369.986</v>
+      </c>
+      <c r="G7" t="n">
+        <v>926.826</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2660.516</v>
+      </c>
       <c r="I7" t="n">
-        <v>458</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>382.07</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.804</v>
+      </c>
       <c r="K7" t="n">
-        <v>28</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>144.756</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2185.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>310.261</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.78</v>
+        <v>60.476</v>
       </c>
       <c r="C8" t="n">
-        <v>38.27</v>
+        <v>102.709</v>
       </c>
       <c r="D8" t="n">
-        <v>117.18</v>
+        <v>544.793</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.54</v>
+        <v>2185.478</v>
       </c>
       <c r="F8" t="n">
-        <v>1022.96</v>
+        <v>2438.605</v>
       </c>
       <c r="G8" t="n">
-        <v>865.12</v>
+        <v>930.0700000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2207.88</v>
+        <v>3721.598</v>
       </c>
       <c r="I8" t="n">
-        <v>913.3</v>
+        <v>1334.345</v>
       </c>
       <c r="J8" t="n">
-        <v>15.52</v>
+        <v>15.505</v>
       </c>
       <c r="K8" t="n">
-        <v>62.4</v>
+        <v>83.56100000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>2090.78</v>
+        <v>3176.805</v>
       </c>
       <c r="M8" t="n">
-        <v>257.02</v>
+        <v>292.447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.794</v>
+        <v>54.038</v>
       </c>
       <c r="C9" t="n">
-        <v>53.015</v>
+        <v>88.70699999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>247.149</v>
+        <v>801.062</v>
       </c>
       <c r="E9" t="n">
-        <v>1472.674</v>
+        <v>2668.435</v>
       </c>
       <c r="F9" t="n">
-        <v>1424.95</v>
+        <v>2964.735</v>
       </c>
       <c r="G9" t="n">
-        <v>684.601</v>
+        <v>990.3440000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2411.28</v>
+        <v>4331.704</v>
       </c>
       <c r="I9" t="n">
-        <v>769.424</v>
+        <v>1480.909</v>
       </c>
       <c r="J9" t="n">
-        <v>15.575</v>
+        <v>14.566</v>
       </c>
       <c r="K9" t="n">
-        <v>100.595</v>
+        <v>79.087</v>
       </c>
       <c r="L9" t="n">
-        <v>2164.13</v>
+        <v>3530.642</v>
       </c>
       <c r="M9" t="n">
-        <v>246.936</v>
+        <v>322.587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.633</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
-        <v>58.431</v>
+        <v>86</v>
       </c>
       <c r="D10" t="n">
-        <v>358.454</v>
+        <v>809</v>
       </c>
       <c r="E10" t="n">
-        <v>1700.497</v>
+        <v>2791</v>
       </c>
       <c r="F10" t="n">
-        <v>1056.991</v>
+        <v>2969</v>
       </c>
       <c r="G10" t="n">
-        <v>746.383</v>
+        <v>996</v>
       </c>
       <c r="H10" t="n">
-        <v>2115.089</v>
+        <v>4335</v>
       </c>
       <c r="I10" t="n">
-        <v>244.631</v>
+        <v>1362</v>
       </c>
       <c r="J10" t="n">
-        <v>15.298</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>96.23399999999999</v>
+        <v>81</v>
       </c>
       <c r="L10" t="n">
-        <v>1756.636</v>
+        <v>3527</v>
       </c>
       <c r="M10" t="n">
-        <v>248.08</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.869</v>
+        <v>61</v>
       </c>
       <c r="C11" t="n">
-        <v>80.148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
-        <v>443.915</v>
+        <v>1137</v>
       </c>
       <c r="E11" t="n">
-        <v>1933.116</v>
+        <v>2959.057</v>
       </c>
       <c r="F11" t="n">
-        <v>1253.684</v>
+        <v>3159.567</v>
       </c>
       <c r="G11" t="n">
-        <v>847.207</v>
+        <v>1279.491</v>
       </c>
       <c r="H11" t="n">
-        <v>2434.927</v>
+        <v>4840</v>
       </c>
       <c r="I11" t="n">
-        <v>304.758</v>
+        <v>1629.324</v>
       </c>
       <c r="J11" t="n">
-        <v>15.377</v>
+        <v>16.141</v>
       </c>
       <c r="K11" t="n">
-        <v>101.527</v>
+        <v>86</v>
       </c>
       <c r="L11" t="n">
-        <v>1991.011</v>
+        <v>3702.69</v>
       </c>
       <c r="M11" t="n">
-        <v>276.167</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.443</v>
+        <v>58.29</v>
       </c>
       <c r="C12" t="n">
-        <v>85.139</v>
+        <v>126.010000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>474.767</v>
+        <v>1141.03</v>
       </c>
       <c r="E12" t="n">
-        <v>2033.747</v>
+        <v>3188.47</v>
       </c>
       <c r="F12" t="n">
-        <v>1369.986</v>
+        <v>3357.9</v>
       </c>
       <c r="G12" t="n">
-        <v>926.826</v>
+        <v>1219.56</v>
       </c>
       <c r="H12" t="n">
-        <v>2660.516</v>
+        <v>4973.7</v>
       </c>
       <c r="I12" t="n">
-        <v>382.07</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.804</v>
-      </c>
+        <v>1613.78</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>144.756</v>
+        <v>45.44</v>
       </c>
       <c r="L12" t="n">
-        <v>2185.75</v>
+        <v>3832.84</v>
       </c>
       <c r="M12" t="n">
-        <v>310.261</v>
+        <v>337.95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.476</v>
+        <v>55</v>
       </c>
       <c r="C13" t="n">
-        <v>102.709</v>
+        <v>144.64</v>
       </c>
       <c r="D13" t="n">
-        <v>544.793</v>
+        <v>1037.33</v>
       </c>
       <c r="E13" t="n">
-        <v>2185.478</v>
+        <v>3443.92</v>
       </c>
       <c r="F13" t="n">
-        <v>2438.605</v>
+        <v>3251.47</v>
       </c>
       <c r="G13" t="n">
-        <v>930.0700000000001</v>
+        <v>1078.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3721.598</v>
+        <v>4742.35</v>
       </c>
       <c r="I13" t="n">
-        <v>1334.345</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15.505</v>
-      </c>
+        <v>1109.26</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>83.56100000000001</v>
+        <v>44.91</v>
       </c>
       <c r="L13" t="n">
-        <v>3176.805</v>
+        <v>3705.37</v>
       </c>
       <c r="M13" t="n">
-        <v>292.447</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>54.038</v>
-      </c>
-      <c r="C14" t="n">
-        <v>88.70699999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>801.062</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2668.435</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2964.735</v>
-      </c>
-      <c r="G14" t="n">
-        <v>990.3440000000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4331.704</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1480.909</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.566</v>
-      </c>
-      <c r="K14" t="n">
-        <v>79.087</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3530.642</v>
-      </c>
-      <c r="M14" t="n">
-        <v>322.587</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>54</v>
-      </c>
-      <c r="C15" t="n">
-        <v>86</v>
-      </c>
-      <c r="D15" t="n">
-        <v>809</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2791</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2969</v>
-      </c>
-      <c r="G15" t="n">
-        <v>996</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4335</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1362</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>81</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3527</v>
-      </c>
-      <c r="M15" t="n">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>61</v>
-      </c>
-      <c r="C16" t="n">
-        <v>149</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1137</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2959.057</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3159.567</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1279.491</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4840</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1629.324</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16.141</v>
-      </c>
-      <c r="K16" t="n">
-        <v>86</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3702.69</v>
-      </c>
-      <c r="M16" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>58.29</v>
-      </c>
-      <c r="C17" t="n">
-        <v>126.010000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1141.03</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3188.47</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3357.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1219.56</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4973.7</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1613.78</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>45.44</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3832.84</v>
-      </c>
-      <c r="M17" t="n">
-        <v>337.95</v>
+        <v>357.78</v>
       </c>
     </row>
   </sheetData>
